--- a/Data_Results/OTHER FEATURES.xlsx
+++ b/Data_Results/OTHER FEATURES.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaber\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/qezelbashc_jaber_ufl_edu/Documents/Educational/Research/FHRT/PROJECT/GitHub/FHR_Project/Data_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FA62FF-C9CF-41D4-8B0B-B53CDE76C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A3FA62FF-C9CF-41D4-8B0B-B53CDE76C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{823C726E-9DF8-4995-82C0-E5C2D54D2351}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14302BEF-7F7D-41A0-ABA6-96A5BB2A1AC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{14302BEF-7F7D-41A0-ABA6-96A5BB2A1AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -258,14 +259,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92F5C0B-D065-4DA5-A81F-10F4309354CD}">
   <dimension ref="E2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,16 +620,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
@@ -637,23 +638,23 @@
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -664,7 +665,7 @@
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -696,7 +697,7 @@
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -728,7 +729,7 @@
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -760,7 +761,7 @@
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -792,7 +793,7 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -824,7 +825,7 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -856,7 +857,7 @@
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -888,7 +889,7 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -920,7 +921,7 @@
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -952,7 +953,7 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1256,4 +1257,16 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3C1770-E60E-49D9-8B30-BC320239704B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>